--- a/tests/integration/models/3a - lca_it_pt/input_data/input_data.xlsx
+++ b/tests/integration/models/3a - lca_it_pt/input_data/input_data.xlsx
@@ -8,25 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\models\3a - lca_it_pt\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E22632-6860-400D-A46D-C8CECA14102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FDAEC-1472-4FF8-9305-6638EB8832C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17910" yWindow="3530" windowWidth="17700" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="u" sheetId="1" r:id="rId1"/>
-    <sheet name="c" sheetId="2" r:id="rId2"/>
-    <sheet name="d" sheetId="3" r:id="rId3"/>
-    <sheet name="r" sheetId="4" r:id="rId4"/>
+    <sheet name="r" sheetId="2" r:id="rId2"/>
+    <sheet name="v" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">u!$A$1:$D$36</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -98,7 +94,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,16 +440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -961,32 +951,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1000,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1014,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1028,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1042,13 +1026,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1056,432 +1040,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
         <v>0</v>
       </c>
     </row>
@@ -1495,13 +1059,13 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1529,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1543,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.33333000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1641,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.3333299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2006,109 +1570,6 @@
       </c>
       <c r="D36">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
